--- a/Model3.xlsx
+++ b/Model3.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -5925,6 +5925,1560 @@
       </c>
       <c r="X74" t="n">
         <v>54</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>128</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>16.71428571428572</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.531660725130545</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.505440953118461</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76.02</v>
+      </c>
+      <c r="K75" t="n">
+        <v>26</v>
+      </c>
+      <c r="L75" t="n">
+        <v>10</v>
+      </c>
+      <c r="M75" t="n">
+        <v>46</v>
+      </c>
+      <c r="N75" t="n">
+        <v>52</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>24</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4</v>
+      </c>
+      <c r="U75" t="n">
+        <v>36</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>128</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.457078524224759</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.494851966585432</v>
+      </c>
+      <c r="J76" t="n">
+        <v>141.45</v>
+      </c>
+      <c r="K76" t="n">
+        <v>20</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6</v>
+      </c>
+      <c r="M76" t="n">
+        <v>50</v>
+      </c>
+      <c r="N76" t="n">
+        <v>36</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>10</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>34</v>
+      </c>
+      <c r="V76" t="n">
+        <v>12</v>
+      </c>
+      <c r="W76" t="n">
+        <v>4</v>
+      </c>
+      <c r="X76" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>128</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.423172201104146</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.481431553704398</v>
+      </c>
+      <c r="J77" t="n">
+        <v>206</v>
+      </c>
+      <c r="K77" t="n">
+        <v>26</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8</v>
+      </c>
+      <c r="M77" t="n">
+        <v>64</v>
+      </c>
+      <c r="N77" t="n">
+        <v>56</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>14</v>
+      </c>
+      <c r="S77" t="n">
+        <v>6</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2</v>
+      </c>
+      <c r="U77" t="n">
+        <v>30</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>128</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.39502457260632</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.504991797038487</v>
+      </c>
+      <c r="J78" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22</v>
+      </c>
+      <c r="L78" t="n">
+        <v>18</v>
+      </c>
+      <c r="M78" t="n">
+        <v>46</v>
+      </c>
+      <c r="N78" t="n">
+        <v>32</v>
+      </c>
+      <c r="O78" t="n">
+        <v>18</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>8</v>
+      </c>
+      <c r="R78" t="n">
+        <v>28</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="n">
+        <v>12</v>
+      </c>
+      <c r="U78" t="n">
+        <v>28</v>
+      </c>
+      <c r="V78" t="n">
+        <v>8</v>
+      </c>
+      <c r="W78" t="n">
+        <v>2</v>
+      </c>
+      <c r="X78" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.000625</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>128</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>18.28571428571428</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.373300798950329</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.498263314110892</v>
+      </c>
+      <c r="J79" t="n">
+        <v>332.2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>18</v>
+      </c>
+      <c r="L79" t="n">
+        <v>26</v>
+      </c>
+      <c r="M79" t="n">
+        <v>52</v>
+      </c>
+      <c r="N79" t="n">
+        <v>50</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>6</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="n">
+        <v>24</v>
+      </c>
+      <c r="U79" t="n">
+        <v>24</v>
+      </c>
+      <c r="V79" t="n">
+        <v>10</v>
+      </c>
+      <c r="W79" t="n">
+        <v>4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>128</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G80" t="n">
+        <v>16.28571428571428</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.515542966551274</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.496398003441947</v>
+      </c>
+      <c r="J80" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="K80" t="n">
+        <v>16</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6</v>
+      </c>
+      <c r="M80" t="n">
+        <v>52</v>
+      </c>
+      <c r="N80" t="n">
+        <v>52</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>34</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>32</v>
+      </c>
+      <c r="V80" t="n">
+        <v>6</v>
+      </c>
+      <c r="W80" t="n">
+        <v>2</v>
+      </c>
+      <c r="X80" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>128</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G81" t="n">
+        <v>16.14285714285714</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.439795084211748</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.512370970589774</v>
+      </c>
+      <c r="J81" t="n">
+        <v>128.91</v>
+      </c>
+      <c r="K81" t="n">
+        <v>12</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10</v>
+      </c>
+      <c r="M81" t="n">
+        <v>66</v>
+      </c>
+      <c r="N81" t="n">
+        <v>14</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>6</v>
+      </c>
+      <c r="R81" t="n">
+        <v>26</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>40</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
+      </c>
+      <c r="W81" t="n">
+        <v>12</v>
+      </c>
+      <c r="X81" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>128</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.403858127920538</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.491466628483364</v>
+      </c>
+      <c r="J82" t="n">
+        <v>193.35</v>
+      </c>
+      <c r="K82" t="n">
+        <v>14</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8</v>
+      </c>
+      <c r="M82" t="n">
+        <v>50</v>
+      </c>
+      <c r="N82" t="n">
+        <v>38</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>6</v>
+      </c>
+      <c r="R82" t="n">
+        <v>16</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>10</v>
+      </c>
+      <c r="U82" t="n">
+        <v>38</v>
+      </c>
+      <c r="V82" t="n">
+        <v>6</v>
+      </c>
+      <c r="W82" t="n">
+        <v>6</v>
+      </c>
+      <c r="X82" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.000125</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>128</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.373106079280185</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.503792875834874</v>
+      </c>
+      <c r="J83" t="n">
+        <v>258.41</v>
+      </c>
+      <c r="K83" t="n">
+        <v>16</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>46</v>
+      </c>
+      <c r="N83" t="n">
+        <v>32</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>24</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="n">
+        <v>12</v>
+      </c>
+      <c r="U83" t="n">
+        <v>36</v>
+      </c>
+      <c r="V83" t="n">
+        <v>6</v>
+      </c>
+      <c r="W83" t="n">
+        <v>6</v>
+      </c>
+      <c r="X83" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.25e-05</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>128</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>16.57142857142857</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.348111599720393</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.529005195072719</v>
+      </c>
+      <c r="J84" t="n">
+        <v>323.34</v>
+      </c>
+      <c r="K84" t="n">
+        <v>26</v>
+      </c>
+      <c r="L84" t="n">
+        <v>8</v>
+      </c>
+      <c r="M84" t="n">
+        <v>52</v>
+      </c>
+      <c r="N84" t="n">
+        <v>22</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>20</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>10</v>
+      </c>
+      <c r="U84" t="n">
+        <v>40</v>
+      </c>
+      <c r="V84" t="n">
+        <v>8</v>
+      </c>
+      <c r="W84" t="n">
+        <v>2</v>
+      </c>
+      <c r="X84" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.125e-05</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>128</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.321127301738874</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.500657118388585</v>
+      </c>
+      <c r="J85" t="n">
+        <v>387.9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>20</v>
+      </c>
+      <c r="L85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M85" t="n">
+        <v>48</v>
+      </c>
+      <c r="N85" t="n">
+        <v>46</v>
+      </c>
+      <c r="O85" t="n">
+        <v>4</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>14</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>14</v>
+      </c>
+      <c r="U85" t="n">
+        <v>40</v>
+      </c>
+      <c r="V85" t="n">
+        <v>12</v>
+      </c>
+      <c r="W85" t="n">
+        <v>10</v>
+      </c>
+      <c r="X85" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.5625e-05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>128</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.296457298938594</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.498885946273804</v>
+      </c>
+      <c r="J86" t="n">
+        <v>452.55</v>
+      </c>
+      <c r="K86" t="n">
+        <v>22</v>
+      </c>
+      <c r="L86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M86" t="n">
+        <v>56</v>
+      </c>
+      <c r="N86" t="n">
+        <v>36</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>26</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="n">
+        <v>12</v>
+      </c>
+      <c r="U86" t="n">
+        <v>36</v>
+      </c>
+      <c r="V86" t="n">
+        <v>10</v>
+      </c>
+      <c r="W86" t="n">
+        <v>8</v>
+      </c>
+      <c r="X86" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>128</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.589168856916352</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.546807534354074</v>
+      </c>
+      <c r="J87" t="n">
+        <v>64.42</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>64</v>
+      </c>
+      <c r="N87" t="n">
+        <v>62</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>12</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>12</v>
+      </c>
+      <c r="U87" t="n">
+        <v>12</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>6</v>
+      </c>
+      <c r="X87" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>128</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.525207865792895</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.518538906914847</v>
+      </c>
+      <c r="J88" t="n">
+        <v>128.93</v>
+      </c>
+      <c r="K88" t="n">
+        <v>16</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>70</v>
+      </c>
+      <c r="N88" t="n">
+        <v>52</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>32</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>8</v>
+      </c>
+      <c r="U88" t="n">
+        <v>16</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>6</v>
+      </c>
+      <c r="X88" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>128</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.495830482232281</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.501672410964966</v>
+      </c>
+      <c r="J89" t="n">
+        <v>193.57</v>
+      </c>
+      <c r="K89" t="n">
+        <v>10</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>60</v>
+      </c>
+      <c r="N89" t="n">
+        <v>56</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>6</v>
+      </c>
+      <c r="R89" t="n">
+        <v>34</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>6</v>
+      </c>
+      <c r="U89" t="n">
+        <v>22</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>8</v>
+      </c>
+      <c r="X89" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.25e-05</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>128</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.477143511620048</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.503525608607701</v>
+      </c>
+      <c r="J90" t="n">
+        <v>258.02</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>58</v>
+      </c>
+      <c r="N90" t="n">
+        <v>48</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>6</v>
+      </c>
+      <c r="R90" t="n">
+        <v>20</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>6</v>
+      </c>
+      <c r="U90" t="n">
+        <v>22</v>
+      </c>
+      <c r="V90" t="n">
+        <v>4</v>
+      </c>
+      <c r="W90" t="n">
+        <v>4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.25e-06</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>128</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.462008010556135</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.493975157056536</v>
+      </c>
+      <c r="J91" t="n">
+        <v>322.44</v>
+      </c>
+      <c r="K91" t="n">
+        <v>10</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>54</v>
+      </c>
+      <c r="N91" t="n">
+        <v>54</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>32</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10</v>
+      </c>
+      <c r="U91" t="n">
+        <v>28</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.125e-06</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>128</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.450998636125158</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.490189114979335</v>
+      </c>
+      <c r="J92" t="n">
+        <v>385.24</v>
+      </c>
+      <c r="K92" t="n">
+        <v>16</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="n">
+        <v>56</v>
+      </c>
+      <c r="N92" t="n">
+        <v>48</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>8</v>
+      </c>
+      <c r="R92" t="n">
+        <v>28</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>8</v>
+      </c>
+      <c r="U92" t="n">
+        <v>32</v>
+      </c>
+      <c r="V92" t="n">
+        <v>4</v>
+      </c>
+      <c r="W92" t="n">
+        <v>8</v>
+      </c>
+      <c r="X92" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.5625e-06</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>128</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.442204221675785</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.491530125481742</v>
+      </c>
+      <c r="J93" t="n">
+        <v>448.16</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>54</v>
+      </c>
+      <c r="N93" t="n">
+        <v>44</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>8</v>
+      </c>
+      <c r="R93" t="n">
+        <v>30</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>8</v>
+      </c>
+      <c r="U93" t="n">
+        <v>30</v>
+      </c>
+      <c r="V93" t="n">
+        <v>6</v>
+      </c>
+      <c r="W93" t="n">
+        <v>2</v>
+      </c>
+      <c r="X93" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>128</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>14</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.587598979574287</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.553841740744454</v>
+      </c>
+      <c r="J94" t="n">
+        <v>64.44</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>44</v>
+      </c>
+      <c r="N94" t="n">
+        <v>64</v>
+      </c>
+      <c r="O94" t="n">
+        <v>6</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>24</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2</v>
+      </c>
+      <c r="U94" t="n">
+        <v>16</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>2</v>
+      </c>
+      <c r="X94" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>128</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.524974962839579</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.518962579454695</v>
+      </c>
+      <c r="J95" t="n">
+        <v>129.01</v>
+      </c>
+      <c r="K95" t="n">
+        <v>8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>52</v>
+      </c>
+      <c r="N95" t="n">
+        <v>56</v>
+      </c>
+      <c r="O95" t="n">
+        <v>4</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>24</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>14</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2</v>
+      </c>
+      <c r="W95" t="n">
+        <v>2</v>
+      </c>
+      <c r="X95" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
